--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H2">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J2">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>36.30851842980623</v>
+        <v>51.64758298065423</v>
       </c>
       <c r="R2">
-        <v>326.776665868256</v>
+        <v>464.828246825888</v>
       </c>
       <c r="S2">
-        <v>0.01817832262928101</v>
+        <v>0.01729248938655332</v>
       </c>
       <c r="T2">
-        <v>0.01817832262928101</v>
+        <v>0.01729248938655332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H3">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J3">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>49.65069391242189</v>
+        <v>82.57696148514756</v>
       </c>
       <c r="R3">
-        <v>446.856245211797</v>
+        <v>743.1926533663282</v>
       </c>
       <c r="S3">
-        <v>0.0248582528767341</v>
+        <v>0.02764817146604154</v>
       </c>
       <c r="T3">
-        <v>0.02485825287673409</v>
+        <v>0.02764817146604153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H4">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J4">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>827.6288259290621</v>
+        <v>1522.824488618077</v>
       </c>
       <c r="R4">
-        <v>7448.65943336156</v>
+        <v>13705.4203975627</v>
       </c>
       <c r="S4">
-        <v>0.4143629226876123</v>
+        <v>0.5098675443703797</v>
       </c>
       <c r="T4">
-        <v>0.4143629226876123</v>
+        <v>0.5098675443703797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>9.854762333333333</v>
+        <v>16.39002933333333</v>
       </c>
       <c r="H5">
-        <v>29.564287</v>
+        <v>49.170088</v>
       </c>
       <c r="I5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="J5">
-        <v>0.4578789100146891</v>
+        <v>0.5551882184054378</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>0.9575544067222223</v>
+        <v>1.134987677960889</v>
       </c>
       <c r="R5">
-        <v>8.617989660499999</v>
+        <v>10.214889101648</v>
       </c>
       <c r="S5">
-        <v>0.0004794118210617171</v>
+        <v>0.0003800131824631391</v>
       </c>
       <c r="T5">
-        <v>0.0004794118210617171</v>
+        <v>0.000380013182463139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H6">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J6">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>0.7812899815217778</v>
+        <v>0.6682210518324445</v>
       </c>
       <c r="R6">
-        <v>7.031609833696</v>
+        <v>6.013989466492</v>
       </c>
       <c r="S6">
-        <v>0.0003911627894865791</v>
+        <v>0.0002237317756188572</v>
       </c>
       <c r="T6">
-        <v>0.0003911627894865791</v>
+        <v>0.0002237317756188573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H7">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J7">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
         <v>1.068388119564111</v>
       </c>
       <c r="R7">
-        <v>9.615493076076998</v>
+        <v>9.615493076077001</v>
       </c>
       <c r="S7">
-        <v>0.0005349021323542589</v>
+        <v>0.0003577145173512247</v>
       </c>
       <c r="T7">
-        <v>0.0005349021323542588</v>
+        <v>0.0003577145173512247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H8">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J8">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>17.80899188621778</v>
+        <v>19.70243954923767</v>
       </c>
       <c r="R8">
-        <v>160.28092697596</v>
+        <v>177.321955943139</v>
       </c>
       <c r="S8">
-        <v>0.008916298824910279</v>
+        <v>0.006596711929811297</v>
       </c>
       <c r="T8">
-        <v>0.008916298824910279</v>
+        <v>0.006596711929811299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2120556666666666</v>
+        <v>0.2120556666666667</v>
       </c>
       <c r="H9">
-        <v>0.6361669999999999</v>
+        <v>0.636167</v>
       </c>
       <c r="I9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352934</v>
       </c>
       <c r="J9">
-        <v>0.009852679773651049</v>
+        <v>0.007183074867352935</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>0.02060474227777778</v>
+        <v>0.01468457217577778</v>
       </c>
       <c r="R9">
-        <v>0.1854426805</v>
+        <v>0.132161149582</v>
       </c>
       <c r="S9">
-        <v>1.031602689993401E-05</v>
+        <v>4.916644571553904E-06</v>
       </c>
       <c r="T9">
-        <v>1.031602689993401E-05</v>
+        <v>4.916644571553904E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H10">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J10">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>42.20739798029512</v>
+        <v>40.62130381810622</v>
       </c>
       <c r="R10">
-        <v>379.8665818226561</v>
+        <v>365.591734362956</v>
       </c>
       <c r="S10">
-        <v>0.02113167187781512</v>
+        <v>0.01360070354900588</v>
       </c>
       <c r="T10">
-        <v>0.02113167187781512</v>
+        <v>0.01360070354900588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H11">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J11">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>57.71721592030244</v>
+        <v>64.94754734448456</v>
       </c>
       <c r="R11">
-        <v>519.4549432827221</v>
+        <v>584.5279261003611</v>
       </c>
       <c r="S11">
-        <v>0.02889685995564682</v>
+        <v>0.02174554370836391</v>
       </c>
       <c r="T11">
-        <v>0.02889685995564682</v>
+        <v>0.02174554370836391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H12">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J12">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>962.0899102089511</v>
+        <v>1197.715607272036</v>
       </c>
       <c r="R12">
-        <v>8658.80919188056</v>
+        <v>10779.44046544833</v>
       </c>
       <c r="S12">
-        <v>0.4816825787029958</v>
+        <v>0.4010155602948332</v>
       </c>
       <c r="T12">
-        <v>0.4816825787029958</v>
+        <v>0.4010155602948333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.45582066666667</v>
+        <v>12.89091033333333</v>
       </c>
       <c r="H13">
-        <v>34.367462</v>
+        <v>38.672731</v>
       </c>
       <c r="I13">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505164</v>
       </c>
       <c r="J13">
-        <v>0.53226841021166</v>
+        <v>0.4366606914505165</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>1.113123908111111</v>
+        <v>0.8926783527028889</v>
       </c>
       <c r="R13">
-        <v>10.018115173</v>
+        <v>8.034105174325999</v>
       </c>
       <c r="S13">
-        <v>0.0005572996752023604</v>
+        <v>0.0002988838983133585</v>
       </c>
       <c r="T13">
-        <v>0.0005572996752023604</v>
+        <v>0.0002988838983133585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.085732</v>
+      </c>
+      <c r="I14">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J14">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.151158666666667</v>
+      </c>
+      <c r="N14">
+        <v>9.453476</v>
+      </c>
+      <c r="O14">
+        <v>0.03114707555614071</v>
+      </c>
+      <c r="P14">
+        <v>0.03114707555614071</v>
+      </c>
+      <c r="Q14">
+        <v>0.09005171160355556</v>
+      </c>
+      <c r="R14">
+        <v>0.810465404432</v>
+      </c>
+      <c r="S14">
+        <v>3.015084496265269E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.015084496265269E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.085732</v>
+      </c>
+      <c r="I15">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J15">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N15">
+        <v>15.114731</v>
+      </c>
+      <c r="O15">
+        <v>0.04979963650066307</v>
+      </c>
+      <c r="P15">
+        <v>0.04979963650066306</v>
+      </c>
+      <c r="Q15">
+        <v>0.1439795686768889</v>
+      </c>
+      <c r="R15">
+        <v>1.295816118092</v>
+      </c>
+      <c r="S15">
+        <v>4.820680890639595E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.820680890639596E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.085732</v>
+      </c>
+      <c r="I16">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J16">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>92.91163899999999</v>
+      </c>
+      <c r="N16">
+        <v>278.734917</v>
+      </c>
+      <c r="O16">
+        <v>0.9183688116343246</v>
+      </c>
+      <c r="P16">
+        <v>0.9183688116343246</v>
+      </c>
+      <c r="Q16">
+        <v>2.655166878249333</v>
+      </c>
+      <c r="R16">
+        <v>23.896501904244</v>
+      </c>
+      <c r="S16">
+        <v>0.0008889950393003444</v>
+      </c>
+      <c r="T16">
+        <v>0.0008889950393003446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02857733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.085732</v>
+      </c>
+      <c r="I17">
+        <v>0.0009680152766929151</v>
+      </c>
+      <c r="J17">
+        <v>0.0009680152766929153</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06924866666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.207746</v>
+      </c>
+      <c r="O17">
+        <v>0.0006844763088715736</v>
+      </c>
+      <c r="P17">
+        <v>0.0006844763088715734</v>
+      </c>
+      <c r="Q17">
+        <v>0.001978942230222222</v>
+      </c>
+      <c r="R17">
+        <v>0.017810480072</v>
+      </c>
+      <c r="S17">
+        <v>6.625835235220615E-07</v>
+      </c>
+      <c r="T17">
+        <v>6.625835235220615E-07</v>
       </c>
     </row>
   </sheetData>
